--- a/data/trans_orig/IP07A12-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A12-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4C9CD98-67A3-4BF5-952F-DB3EC5BDCBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47A42F61-BC20-4811-ACCB-B6495311383F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8BC7C596-F07B-4C25-BECF-07FD5885FB8F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CD27B23D-552B-4082-952B-C917D495450D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="508">
   <si>
     <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2007 (Tasa respuesta: 47,24%)</t>
   </si>
@@ -76,1507 +76,1492 @@
     <t>24,88%</t>
   </si>
   <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
   </si>
   <si>
     <t>31,85%</t>
   </si>
   <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
   </si>
   <si>
     <t>28,47%</t>
   </si>
   <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
     <t>21,29%</t>
   </si>
   <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>40,66%</t>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2012 (Tasa respuesta: 44,78%)</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2016 (Tasa respuesta: 47,18%)</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
   </si>
   <si>
     <t>28,8%</t>
   </si>
   <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
   </si>
   <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
   </si>
   <si>
     <t>45,58%</t>
   </si>
   <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2012 (Tasa respuesta: 44,78%)</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
   </si>
   <si>
     <t>35,6%</t>
   </si>
   <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
   </si>
   <si>
     <t>3,52%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2015 (Tasa respuesta: 47,18%)</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
   </si>
 </sst>
 </file>
@@ -1988,7 +1973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3EAFD1-DABB-4669-8C06-B5B0314127DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452C242A-1143-465A-AF2E-A2D2CFBB72EC}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2166,10 +2151,10 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>27</v>
@@ -2178,10 +2163,10 @@
         <v>17721</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>25</v>
@@ -2456,7 +2441,7 @@
         <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2471,13 +2456,13 @@
         <v>105486</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>132</v>
@@ -2486,13 +2471,13 @@
         <v>89950</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>290</v>
@@ -2501,13 +2486,13 @@
         <v>195437</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2522,13 +2507,13 @@
         <v>50471</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>76</v>
@@ -2537,13 +2522,13 @@
         <v>50189</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>153</v>
@@ -2552,13 +2537,13 @@
         <v>100660</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2573,13 +2558,13 @@
         <v>8666</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -2588,13 +2573,13 @@
         <v>7466</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -2603,13 +2588,13 @@
         <v>16132</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2624,13 +2609,13 @@
         <v>6051</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -2639,13 +2624,13 @@
         <v>4041</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -2654,13 +2639,13 @@
         <v>10092</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2716,7 +2701,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2728,13 +2713,13 @@
         <v>24531</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>33</v>
@@ -2743,13 +2728,13 @@
         <v>22870</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>69</v>
@@ -2758,13 +2743,13 @@
         <v>47402</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2779,13 +2764,13 @@
         <v>25212</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>36</v>
@@ -2794,13 +2779,13 @@
         <v>25059</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>73</v>
@@ -2809,13 +2794,13 @@
         <v>50272</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2830,13 +2815,13 @@
         <v>9956</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H18" s="7">
         <v>25</v>
@@ -2845,13 +2830,13 @@
         <v>17664</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>40</v>
@@ -2860,13 +2845,13 @@
         <v>27620</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2887,7 +2872,7 @@
         <v>41</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2947,13 +2932,13 @@
         <v>632</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>40</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -2962,13 +2947,13 @@
         <v>1327</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>40</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,13 +3021,13 @@
         <v>103572</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H22" s="7">
         <v>135</v>
@@ -3051,13 +3036,13 @@
         <v>90621</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M22" s="7">
         <v>291</v>
@@ -3066,13 +3051,13 @@
         <v>194194</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,13 +3072,13 @@
         <v>145663</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H23" s="7">
         <v>195</v>
@@ -3102,13 +3087,13 @@
         <v>132730</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M23" s="7">
         <v>412</v>
@@ -3117,13 +3102,13 @@
         <v>278394</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,13 +3123,13 @@
         <v>79629</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>119</v>
@@ -3153,13 +3138,13 @@
         <v>79611</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M24" s="7">
         <v>240</v>
@@ -3168,13 +3153,13 @@
         <v>159240</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3189,13 +3174,13 @@
         <v>8666</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -3204,13 +3189,13 @@
         <v>11979</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M25" s="7">
         <v>31</v>
@@ -3219,13 +3204,13 @@
         <v>20645</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>54</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3240,13 +3225,13 @@
         <v>8057</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H26" s="7">
         <v>8</v>
@@ -3255,13 +3240,13 @@
         <v>5407</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M26" s="7">
         <v>20</v>
@@ -3270,13 +3255,13 @@
         <v>13464</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,7 +3317,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3351,7 +3336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3748688-38A2-4B41-BAC2-C0341DAF1013}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03FC0B4-E3AD-4809-AC38-3699D85C76A4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3368,7 +3353,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3475,13 +3460,13 @@
         <v>14531</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H4" s="7">
         <v>29</v>
@@ -3490,13 +3475,13 @@
         <v>20528</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M4" s="7">
         <v>50</v>
@@ -3505,13 +3490,13 @@
         <v>35058</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,13 +3511,13 @@
         <v>14082</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H5" s="7">
         <v>23</v>
@@ -3541,13 +3526,13 @@
         <v>15742</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M5" s="7">
         <v>42</v>
@@ -3556,13 +3541,13 @@
         <v>29823</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3577,13 +3562,13 @@
         <v>14748</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H6" s="7">
         <v>17</v>
@@ -3592,13 +3577,13 @@
         <v>12515</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M6" s="7">
         <v>39</v>
@@ -3607,13 +3592,13 @@
         <v>27263</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,13 +3613,13 @@
         <v>607</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -3643,13 +3628,13 @@
         <v>3167</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -3658,13 +3643,13 @@
         <v>3774</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3679,13 +3664,13 @@
         <v>1885</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3694,13 +3679,13 @@
         <v>537</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -3709,13 +3694,13 @@
         <v>2422</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3783,13 +3768,13 @@
         <v>90295</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H10" s="7">
         <v>108</v>
@@ -3798,13 +3783,13 @@
         <v>75337</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M10" s="7">
         <v>240</v>
@@ -3813,13 +3798,13 @@
         <v>165633</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,13 +3819,13 @@
         <v>80392</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="H11" s="7">
         <v>117</v>
@@ -3849,13 +3834,13 @@
         <v>81082</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="M11" s="7">
         <v>233</v>
@@ -3864,13 +3849,13 @@
         <v>161474</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,13 +3870,13 @@
         <v>39675</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>247</v>
+        <v>15</v>
       </c>
       <c r="H12" s="7">
         <v>57</v>
@@ -3900,13 +3885,13 @@
         <v>40432</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M12" s="7">
         <v>116</v>
@@ -3915,13 +3900,13 @@
         <v>80106</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,13 +3921,13 @@
         <v>12994</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -3951,13 +3936,13 @@
         <v>6232</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -3966,13 +3951,13 @@
         <v>19226</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,13 +3972,13 @@
         <v>4719</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -4002,13 +3987,13 @@
         <v>3062</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -4017,13 +4002,13 @@
         <v>7781</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,7 +4064,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4091,13 +4076,13 @@
         <v>29785</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H16" s="7">
         <v>51</v>
@@ -4106,13 +4091,13 @@
         <v>37004</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="M16" s="7">
         <v>95</v>
@@ -4121,13 +4106,13 @@
         <v>66789</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,13 +4127,13 @@
         <v>15639</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -4157,13 +4142,13 @@
         <v>16976</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M17" s="7">
         <v>48</v>
@@ -4172,13 +4157,13 @@
         <v>32616</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,13 +4178,13 @@
         <v>6259</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
@@ -4208,13 +4193,13 @@
         <v>8595</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>290</v>
       </c>
       <c r="M18" s="7">
         <v>21</v>
@@ -4223,13 +4208,13 @@
         <v>14854</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,13 +4229,13 @@
         <v>3440</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -4259,13 +4244,13 @@
         <v>842</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -4274,13 +4259,13 @@
         <v>4282</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>302</v>
+        <v>180</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,13 +4280,13 @@
         <v>2810</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>305</v>
+        <v>95</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4316,7 +4301,7 @@
         <v>41</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>175</v>
+        <v>303</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -4325,13 +4310,13 @@
         <v>2810</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4399,13 +4384,13 @@
         <v>134610</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H22" s="7">
         <v>188</v>
@@ -4414,13 +4399,13 @@
         <v>132870</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M22" s="7">
         <v>385</v>
@@ -4429,13 +4414,13 @@
         <v>267480</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,13 +4435,13 @@
         <v>110113</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>320</v>
+        <v>188</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H23" s="7">
         <v>164</v>
@@ -4465,13 +4450,13 @@
         <v>113799</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>120</v>
+        <v>320</v>
       </c>
       <c r="M23" s="7">
         <v>323</v>
@@ -4480,13 +4465,13 @@
         <v>223912</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4501,13 +4486,13 @@
         <v>60682</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H24" s="7">
         <v>86</v>
@@ -4516,13 +4501,13 @@
         <v>61541</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="M24" s="7">
         <v>176</v>
@@ -4531,13 +4516,13 @@
         <v>122223</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4552,13 +4537,13 @@
         <v>17042</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -4567,13 +4552,13 @@
         <v>10241</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="M25" s="7">
         <v>38</v>
@@ -4582,13 +4567,13 @@
         <v>27282</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>343</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4603,13 +4588,13 @@
         <v>9414</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -4618,13 +4603,13 @@
         <v>3599</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>42</v>
+        <v>346</v>
       </c>
       <c r="M26" s="7">
         <v>18</v>
@@ -4633,13 +4618,13 @@
         <v>13013</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>350</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4695,7 +4680,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -4714,7 +4699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8AD5BC4-ED35-42D0-9F2E-154C6117E31A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AFB7186-3D48-4BA8-8B4A-85CF576B19D5}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4731,7 +4716,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4838,13 +4823,13 @@
         <v>4904</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -4853,13 +4838,13 @@
         <v>6695</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -4868,13 +4853,13 @@
         <v>11599</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4889,13 +4874,13 @@
         <v>12833</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -4904,13 +4889,13 @@
         <v>7555</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="M5" s="7">
         <v>30</v>
@@ -4919,13 +4904,13 @@
         <v>20388</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>369</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4940,13 +4925,13 @@
         <v>9790</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>371</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="H6" s="7">
         <v>14</v>
@@ -4955,13 +4940,13 @@
         <v>9922</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>375</v>
+        <v>151</v>
       </c>
       <c r="M6" s="7">
         <v>28</v>
@@ -4970,13 +4955,13 @@
         <v>19713</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>31</v>
+        <v>369</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4991,13 +4976,13 @@
         <v>9111</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -5006,13 +4991,13 @@
         <v>5369</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>300</v>
+        <v>376</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -5021,13 +5006,13 @@
         <v>14480</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5048,7 +5033,7 @@
         <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>386</v>
+        <v>102</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -5057,13 +5042,13 @@
         <v>2274</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>389</v>
+        <v>293</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -5072,13 +5057,13 @@
         <v>2274</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5146,13 +5131,13 @@
         <v>91889</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="H10" s="7">
         <v>106</v>
@@ -5161,13 +5146,13 @@
         <v>72788</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="M10" s="7">
         <v>232</v>
@@ -5176,13 +5161,13 @@
         <v>164677</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5197,13 +5182,13 @@
         <v>72860</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>403</v>
+        <v>372</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="H11" s="7">
         <v>105</v>
@@ -5212,13 +5197,13 @@
         <v>73885</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="M11" s="7">
         <v>205</v>
@@ -5227,13 +5212,13 @@
         <v>146745</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5248,13 +5233,13 @@
         <v>68504</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>362</v>
+        <v>403</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>146</v>
+        <v>404</v>
       </c>
       <c r="H12" s="7">
         <v>108</v>
@@ -5263,13 +5248,13 @@
         <v>74810</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="M12" s="7">
         <v>201</v>
@@ -5278,13 +5263,13 @@
         <v>143314</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5299,13 +5284,13 @@
         <v>10008</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>307</v>
+        <v>54</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -5314,13 +5299,13 @@
         <v>19266</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -5329,13 +5314,13 @@
         <v>29275</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5350,13 +5335,13 @@
         <v>2813</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>419</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -5365,13 +5350,13 @@
         <v>9245</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -5380,13 +5365,13 @@
         <v>12058</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>432</v>
+        <v>213</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>89</v>
+        <v>426</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,7 +5427,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5454,13 +5439,13 @@
         <v>31892</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="H16" s="7">
         <v>36</v>
@@ -5469,13 +5454,13 @@
         <v>26005</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="M16" s="7">
         <v>81</v>
@@ -5484,13 +5469,13 @@
         <v>57897</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>438</v>
+        <v>371</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>440</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,13 +5490,13 @@
         <v>24543</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="H17" s="7">
         <v>44</v>
@@ -5520,13 +5505,13 @@
         <v>31601</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
@@ -5535,13 +5520,13 @@
         <v>56144</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>195</v>
+        <v>442</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5556,13 +5541,13 @@
         <v>17345</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="H18" s="7">
         <v>13</v>
@@ -5571,13 +5556,13 @@
         <v>9299</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="M18" s="7">
         <v>35</v>
@@ -5586,13 +5571,13 @@
         <v>26644</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>60</v>
+        <v>451</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,13 +5592,13 @@
         <v>3063</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -5622,13 +5607,13 @@
         <v>4805</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -5637,13 +5622,13 @@
         <v>7867</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>431</v>
+        <v>459</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,13 +5643,13 @@
         <v>1219</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -5673,13 +5658,13 @@
         <v>2164</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>427</v>
+        <v>463</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -5688,13 +5673,13 @@
         <v>3383</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>471</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5762,13 +5747,13 @@
         <v>128684</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="H22" s="7">
         <v>152</v>
@@ -5777,13 +5762,13 @@
         <v>105489</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="M22" s="7">
         <v>330</v>
@@ -5792,13 +5777,13 @@
         <v>234173</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5813,13 +5798,13 @@
         <v>110235</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H23" s="7">
         <v>161</v>
@@ -5828,13 +5813,13 @@
         <v>113041</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="M23" s="7">
         <v>314</v>
@@ -5843,13 +5828,13 @@
         <v>223277</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>487</v>
+        <v>377</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5864,13 +5849,13 @@
         <v>95639</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="H24" s="7">
         <v>135</v>
@@ -5879,13 +5864,13 @@
         <v>94031</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="M24" s="7">
         <v>264</v>
@@ -5894,13 +5879,13 @@
         <v>189670</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5915,13 +5900,13 @@
         <v>22182</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>341</v>
+        <v>494</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="H25" s="7">
         <v>40</v>
@@ -5930,13 +5915,13 @@
         <v>29440</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="M25" s="7">
         <v>69</v>
@@ -5945,13 +5930,13 @@
         <v>51621</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>505</v>
+        <v>250</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,13 +5951,13 @@
         <v>4032</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="H26" s="7">
         <v>20</v>
@@ -5981,13 +5966,13 @@
         <v>13683</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="M26" s="7">
         <v>26</v>
@@ -5996,13 +5981,13 @@
         <v>17715</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>256</v>
+        <v>176</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>336</v>
+        <v>507</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6058,7 +6043,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A12-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A12-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47A42F61-BC20-4811-ACCB-B6495311383F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{094F8FD7-9E10-4201-91E4-1CDBEA031389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CD27B23D-552B-4082-952B-C917D495450D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{005A7ED6-8DF0-4A37-B009-C86344CE7F7E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="511">
   <si>
     <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2007 (Tasa respuesta: 47,24%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,1495 +73,1504 @@
     <t>Siempre</t>
   </si>
   <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
     <t>24,88%</t>
   </si>
   <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
   </si>
   <si>
     <t>28,47%</t>
   </si>
   <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2012 (Tasa respuesta: 44,78%)</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
     <t>21,2%</t>
   </si>
   <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2016 (Tasa respuesta: 47,18%)</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
   </si>
   <si>
     <t>3,68%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
   </si>
   <si>
     <t>34,13%</t>
   </si>
   <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2012 (Tasa respuesta: 44,78%)</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
   </si>
   <si>
     <t>35,43%</t>
   </si>
   <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
   </si>
   <si>
     <t>5,71%</t>
   </si>
   <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2016 (Tasa respuesta: 47,18%)</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
+    <t>8,92%</t>
   </si>
   <si>
     <t>3,85%</t>
   </si>
   <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
   </si>
   <si>
     <t>2,47%</t>
   </si>
   <si>
-    <t>3,52%</t>
+    <t>1,63%</t>
   </si>
 </sst>
 </file>
@@ -1973,7 +1982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452C242A-1143-465A-AF2E-A2D2CFBB72EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC8AFCFB-3DE0-4653-8619-A6D0BA3780C2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2091,10 +2100,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D4" s="7">
-        <v>11752</v>
+        <v>15935</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2106,10 +2115,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I4" s="7">
-        <v>15935</v>
+        <v>11752</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2142,31 +2151,31 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7">
-        <v>14965</v>
+        <v>17721</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>22</v>
+      </c>
+      <c r="I5" s="7">
+        <v>14965</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>27</v>
-      </c>
-      <c r="I5" s="7">
-        <v>17721</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>25</v>
@@ -2193,10 +2202,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="7">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7">
-        <v>19202</v>
+        <v>11758</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2208,10 +2217,10 @@
         <v>32</v>
       </c>
       <c r="H6" s="7">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I6" s="7">
-        <v>11758</v>
+        <v>19202</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>33</v>
@@ -2244,10 +2253,10 @@
         <v>39</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>3885</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -2259,10 +2268,10 @@
         <v>42</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>3885</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>43</v>
@@ -2295,31 +2304,31 @@
         <v>49</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>1311</v>
+        <v>733</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>51</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>733</v>
+        <v>1311</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>52</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>53</v>
@@ -2346,25 +2355,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>75</v>
+      </c>
+      <c r="D9" s="7">
+        <v>50032</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="7">
         <v>71</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>47230</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="7">
-        <v>75</v>
-      </c>
-      <c r="I9" s="7">
-        <v>50032</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>57</v>
@@ -2399,10 +2408,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D10" s="7">
-        <v>67289</v>
+        <v>51816</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>59</v>
@@ -2414,10 +2423,10 @@
         <v>61</v>
       </c>
       <c r="H10" s="7">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="I10" s="7">
-        <v>51816</v>
+        <v>67289</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>62</v>
@@ -2441,7 +2450,7 @@
         <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2450,34 +2459,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>132</v>
+      </c>
+      <c r="D11" s="7">
+        <v>89950</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="7">
         <v>158</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>105486</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" s="7">
-        <v>132</v>
-      </c>
-      <c r="I11" s="7">
-        <v>89950</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>290</v>
@@ -2486,13 +2495,13 @@
         <v>195437</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2501,34 +2510,34 @@
         <v>29</v>
       </c>
       <c r="C12" s="7">
+        <v>76</v>
+      </c>
+      <c r="D12" s="7">
+        <v>50189</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="7">
+      <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="7">
+        <v>77</v>
+      </c>
+      <c r="I12" s="7">
         <v>50471</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" s="7">
-        <v>76</v>
-      </c>
-      <c r="I12" s="7">
-        <v>50189</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>153</v>
@@ -2537,13 +2546,13 @@
         <v>100660</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2552,34 +2561,34 @@
         <v>39</v>
       </c>
       <c r="C13" s="7">
+        <v>11</v>
+      </c>
+      <c r="D13" s="7">
+        <v>7466</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="7">
         <v>13</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>8666</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H13" s="7">
-        <v>11</v>
-      </c>
-      <c r="I13" s="7">
-        <v>7466</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -2588,13 +2597,13 @@
         <v>16132</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2603,13 +2612,13 @@
         <v>49</v>
       </c>
       <c r="C14" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D14" s="7">
-        <v>6051</v>
+        <v>4041</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>95</v>
@@ -2618,10 +2627,10 @@
         <v>96</v>
       </c>
       <c r="H14" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I14" s="7">
-        <v>4041</v>
+        <v>6051</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>97</v>
@@ -2645,7 +2654,7 @@
         <v>101</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2654,25 +2663,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>304</v>
+      </c>
+      <c r="D15" s="7">
+        <v>203463</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="7">
         <v>359</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>237963</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="7">
-        <v>304</v>
-      </c>
-      <c r="I15" s="7">
-        <v>203463</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>57</v>
@@ -2701,37 +2710,37 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>33</v>
+      </c>
+      <c r="D16" s="7">
+        <v>22870</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" s="7">
         <v>36</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>24531</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="H16" s="7">
-        <v>33</v>
-      </c>
-      <c r="I16" s="7">
-        <v>22870</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>108</v>
@@ -2758,10 +2767,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" s="7">
-        <v>25212</v>
+        <v>25059</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>112</v>
@@ -2773,10 +2782,10 @@
         <v>114</v>
       </c>
       <c r="H17" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I17" s="7">
-        <v>25059</v>
+        <v>25212</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>115</v>
@@ -2809,10 +2818,10 @@
         <v>29</v>
       </c>
       <c r="C18" s="7">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D18" s="7">
-        <v>9956</v>
+        <v>17664</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>121</v>
@@ -2824,10 +2833,10 @@
         <v>123</v>
       </c>
       <c r="H18" s="7">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I18" s="7">
-        <v>17664</v>
+        <v>9956</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>124</v>
@@ -2860,31 +2869,31 @@
         <v>39</v>
       </c>
       <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>628</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" s="7">
         <v>0</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>0</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>628</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>132</v>
@@ -2899,7 +2908,7 @@
         <v>133</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>134</v>
@@ -2914,13 +2923,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>695</v>
+        <v>632</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>136</v>
@@ -2929,16 +2938,16 @@
         <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>632</v>
+        <v>695</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -2947,13 +2956,13 @@
         <v>1327</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2962,25 +2971,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>96</v>
+      </c>
+      <c r="D21" s="7">
+        <v>66854</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="7">
         <v>89</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>60394</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="7">
-        <v>96</v>
-      </c>
-      <c r="I21" s="7">
-        <v>66854</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>57</v>
@@ -3015,34 +3024,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>135</v>
+      </c>
+      <c r="D22" s="7">
+        <v>90621</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H22" s="7">
         <v>156</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>103572</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H22" s="7">
-        <v>135</v>
-      </c>
-      <c r="I22" s="7">
-        <v>90621</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M22" s="7">
         <v>291</v>
@@ -3051,13 +3060,13 @@
         <v>194194</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3066,34 +3075,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>195</v>
+      </c>
+      <c r="D23" s="7">
+        <v>132730</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H23" s="7">
         <v>217</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>145663</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H23" s="7">
-        <v>195</v>
-      </c>
-      <c r="I23" s="7">
-        <v>132730</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M23" s="7">
         <v>412</v>
@@ -3102,13 +3111,13 @@
         <v>278394</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3117,34 +3126,34 @@
         <v>29</v>
       </c>
       <c r="C24" s="7">
+        <v>119</v>
+      </c>
+      <c r="D24" s="7">
+        <v>79611</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H24" s="7">
         <v>121</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>79629</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H24" s="7">
-        <v>119</v>
-      </c>
-      <c r="I24" s="7">
-        <v>79611</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M24" s="7">
         <v>240</v>
@@ -3153,13 +3162,13 @@
         <v>159240</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3168,31 +3177,31 @@
         <v>39</v>
       </c>
       <c r="C25" s="7">
+        <v>18</v>
+      </c>
+      <c r="D25" s="7">
+        <v>11979</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H25" s="7">
         <v>13</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>8666</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H25" s="7">
-        <v>18</v>
-      </c>
-      <c r="I25" s="7">
-        <v>11979</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>170</v>
@@ -3207,10 +3216,10 @@
         <v>171</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3219,34 +3228,34 @@
         <v>49</v>
       </c>
       <c r="C26" s="7">
+        <v>8</v>
+      </c>
+      <c r="D26" s="7">
+        <v>5407</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H26" s="7">
         <v>12</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>8057</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="H26" s="7">
-        <v>8</v>
-      </c>
-      <c r="I26" s="7">
-        <v>5407</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>178</v>
+        <v>96</v>
       </c>
       <c r="M26" s="7">
         <v>20</v>
@@ -3270,25 +3279,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>475</v>
+      </c>
+      <c r="D27" s="7">
+        <v>320349</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7">
         <v>519</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>345587</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7">
-        <v>475</v>
-      </c>
-      <c r="I27" s="7">
-        <v>320349</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>57</v>
@@ -3336,7 +3345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03FC0B4-E3AD-4809-AC38-3699D85C76A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F933180-BA69-47D9-A28A-9441BECE3C7F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3454,10 +3463,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D4" s="7">
-        <v>14531</v>
+        <v>20528</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>184</v>
@@ -3469,10 +3478,10 @@
         <v>186</v>
       </c>
       <c r="H4" s="7">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I4" s="7">
-        <v>20528</v>
+        <v>14531</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>187</v>
@@ -3505,10 +3514,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D5" s="7">
-        <v>14082</v>
+        <v>15742</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>193</v>
@@ -3520,10 +3529,10 @@
         <v>195</v>
       </c>
       <c r="H5" s="7">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I5" s="7">
-        <v>15742</v>
+        <v>14082</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>196</v>
@@ -3556,10 +3565,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="7">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7">
-        <v>14748</v>
+        <v>12515</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>202</v>
@@ -3571,10 +3580,10 @@
         <v>204</v>
       </c>
       <c r="H6" s="7">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I6" s="7">
-        <v>12515</v>
+        <v>14748</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>205</v>
@@ -3607,31 +3616,31 @@
         <v>39</v>
       </c>
       <c r="C7" s="7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3167</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>607</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H7" s="7">
-        <v>4</v>
-      </c>
-      <c r="I7" s="7">
-        <v>3167</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>213</v>
+        <v>43</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>214</v>
@@ -3658,31 +3667,31 @@
         <v>49</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>1885</v>
+        <v>537</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>218</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>219</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>537</v>
+        <v>1885</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>220</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>221</v>
@@ -3709,25 +3718,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>74</v>
+      </c>
+      <c r="D9" s="7">
+        <v>52488</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="7">
         <v>65</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>45853</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="7">
-        <v>74</v>
-      </c>
-      <c r="I9" s="7">
-        <v>52488</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>57</v>
@@ -3762,10 +3771,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="D10" s="7">
-        <v>90295</v>
+        <v>75337</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>225</v>
@@ -3777,19 +3786,19 @@
         <v>227</v>
       </c>
       <c r="H10" s="7">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="I10" s="7">
-        <v>75337</v>
+        <v>90295</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M10" s="7">
         <v>240</v>
@@ -3798,13 +3807,13 @@
         <v>165633</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,34 +3822,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>117</v>
+      </c>
+      <c r="D11" s="7">
+        <v>81082</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H11" s="7">
         <v>116</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>80392</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="H11" s="7">
-        <v>117</v>
-      </c>
-      <c r="I11" s="7">
-        <v>81082</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M11" s="7">
         <v>233</v>
@@ -3864,10 +3873,10 @@
         <v>29</v>
       </c>
       <c r="C12" s="7">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12" s="7">
-        <v>39675</v>
+        <v>40432</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>242</v>
@@ -3876,22 +3885,22 @@
         <v>243</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>244</v>
       </c>
       <c r="H12" s="7">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I12" s="7">
-        <v>40432</v>
+        <v>39675</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M12" s="7">
         <v>116</v>
@@ -3900,13 +3909,13 @@
         <v>80106</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,34 +3924,34 @@
         <v>39</v>
       </c>
       <c r="C13" s="7">
+        <v>9</v>
+      </c>
+      <c r="D13" s="7">
+        <v>6232</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H13" s="7">
         <v>19</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>12994</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="H13" s="7">
-        <v>9</v>
-      </c>
-      <c r="I13" s="7">
-        <v>6232</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -3951,13 +3960,13 @@
         <v>19226</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,34 +3975,34 @@
         <v>49</v>
       </c>
       <c r="C14" s="7">
+        <v>4</v>
+      </c>
+      <c r="D14" s="7">
+        <v>3062</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H14" s="7">
         <v>7</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>4719</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H14" s="7">
-        <v>4</v>
-      </c>
-      <c r="I14" s="7">
-        <v>3062</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -4002,13 +4011,13 @@
         <v>7781</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>264</v>
+        <v>212</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>266</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,25 +4026,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>295</v>
+      </c>
+      <c r="D15" s="7">
+        <v>206144</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="7">
         <v>333</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>228076</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="7">
-        <v>295</v>
-      </c>
-      <c r="I15" s="7">
-        <v>206144</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>57</v>
@@ -4064,16 +4073,16 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D16" s="7">
-        <v>29785</v>
+        <v>37004</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>267</v>
@@ -4085,10 +4094,10 @@
         <v>269</v>
       </c>
       <c r="H16" s="7">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I16" s="7">
-        <v>37004</v>
+        <v>29785</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>270</v>
@@ -4124,7 +4133,7 @@
         <v>24</v>
       </c>
       <c r="D17" s="7">
-        <v>15639</v>
+        <v>16976</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>276</v>
@@ -4139,7 +4148,7 @@
         <v>24</v>
       </c>
       <c r="I17" s="7">
-        <v>16976</v>
+        <v>15639</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>279</v>
@@ -4172,10 +4181,10 @@
         <v>29</v>
       </c>
       <c r="C18" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" s="7">
-        <v>6259</v>
+        <v>8595</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>285</v>
@@ -4187,10 +4196,10 @@
         <v>287</v>
       </c>
       <c r="H18" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I18" s="7">
-        <v>8595</v>
+        <v>6259</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>288</v>
@@ -4223,31 +4232,31 @@
         <v>39</v>
       </c>
       <c r="C19" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>3440</v>
+        <v>842</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>294</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>4</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3440</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>842</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>298</v>
@@ -4262,7 +4271,7 @@
         <v>299</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>180</v>
+        <v>294</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>300</v>
@@ -4274,34 +4283,34 @@
         <v>49</v>
       </c>
       <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H20" s="7">
         <v>4</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>2810</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="K20" s="7" t="s">
-        <v>41</v>
+        <v>303</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -4310,13 +4319,13 @@
         <v>2810</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4325,25 +4334,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>88</v>
+      </c>
+      <c r="D21" s="7">
+        <v>63418</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="7">
         <v>85</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>57933</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="7">
-        <v>88</v>
-      </c>
-      <c r="I21" s="7">
-        <v>63418</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>57</v>
@@ -4378,31 +4387,31 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>188</v>
+      </c>
+      <c r="D22" s="7">
+        <v>132870</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H22" s="7">
         <v>197</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>134610</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="H22" s="7">
-        <v>188</v>
-      </c>
-      <c r="I22" s="7">
-        <v>132870</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>312</v>
@@ -4429,34 +4438,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D23" s="7">
-        <v>110113</v>
+        <v>113799</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>316</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>188</v>
+        <v>317</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H23" s="7">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I23" s="7">
-        <v>113799</v>
+        <v>110113</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M23" s="7">
         <v>323</v>
@@ -4465,13 +4474,13 @@
         <v>223912</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,34 +4489,34 @@
         <v>29</v>
       </c>
       <c r="C24" s="7">
+        <v>86</v>
+      </c>
+      <c r="D24" s="7">
+        <v>61541</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H24" s="7">
         <v>90</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>60682</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="H24" s="7">
-        <v>86</v>
-      </c>
-      <c r="I24" s="7">
-        <v>61541</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M24" s="7">
         <v>176</v>
@@ -4516,13 +4525,13 @@
         <v>122223</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,34 +4540,34 @@
         <v>39</v>
       </c>
       <c r="C25" s="7">
+        <v>14</v>
+      </c>
+      <c r="D25" s="7">
+        <v>10241</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H25" s="7">
         <v>24</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>17042</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="H25" s="7">
-        <v>14</v>
-      </c>
-      <c r="I25" s="7">
-        <v>10241</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M25" s="7">
         <v>38</v>
@@ -4567,13 +4576,13 @@
         <v>27282</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>56</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,34 +4591,34 @@
         <v>49</v>
       </c>
       <c r="C26" s="7">
+        <v>5</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3599</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H26" s="7">
         <v>13</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>9414</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="H26" s="7">
-        <v>5</v>
-      </c>
-      <c r="I26" s="7">
-        <v>3599</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M26" s="7">
         <v>18</v>
@@ -4618,13 +4627,13 @@
         <v>13013</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>347</v>
+        <v>137</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>253</v>
+        <v>349</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,25 +4642,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>457</v>
+      </c>
+      <c r="D27" s="7">
+        <v>322050</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7">
         <v>483</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>331861</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7">
-        <v>457</v>
-      </c>
-      <c r="I27" s="7">
-        <v>322050</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>57</v>
@@ -4699,7 +4708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AFB7186-3D48-4BA8-8B4A-85CF576B19D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FFBFC25-15DE-4F12-8478-9A7C9A33F0E3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4716,7 +4725,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4817,34 +4826,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7">
+        <v>6695</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H4" s="7">
         <v>7</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>4904</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="H4" s="7">
-        <v>10</v>
-      </c>
-      <c r="I4" s="7">
-        <v>6695</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -4853,13 +4862,13 @@
         <v>11599</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4868,34 +4877,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>12</v>
+      </c>
+      <c r="D5" s="7">
+        <v>7555</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="H5" s="7">
         <v>18</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>12833</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="H5" s="7">
-        <v>12</v>
-      </c>
-      <c r="I5" s="7">
-        <v>7555</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="M5" s="7">
         <v>30</v>
@@ -4904,13 +4913,13 @@
         <v>20388</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>38</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,31 +4931,31 @@
         <v>14</v>
       </c>
       <c r="D6" s="7">
-        <v>9790</v>
+        <v>9922</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>370</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="H6" s="7">
         <v>14</v>
       </c>
       <c r="I6" s="7">
-        <v>9922</v>
+        <v>9790</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>151</v>
+        <v>374</v>
       </c>
       <c r="M6" s="7">
         <v>28</v>
@@ -4955,13 +4964,13 @@
         <v>19713</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4970,34 +4979,34 @@
         <v>39</v>
       </c>
       <c r="C7" s="7">
+        <v>7</v>
+      </c>
+      <c r="D7" s="7">
+        <v>5369</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="H7" s="7">
         <v>12</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>9111</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="H7" s="7">
-        <v>7</v>
-      </c>
-      <c r="I7" s="7">
-        <v>5369</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -5006,13 +5015,13 @@
         <v>14480</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>380</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5021,34 +5030,34 @@
         <v>49</v>
       </c>
       <c r="C8" s="7">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2274</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H8" s="7">
         <v>0</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>0</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H8" s="7">
-        <v>3</v>
-      </c>
-      <c r="I8" s="7">
-        <v>2274</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>381</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>382</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>293</v>
+        <v>388</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -5057,13 +5066,13 @@
         <v>2274</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5072,25 +5081,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>46</v>
+      </c>
+      <c r="D9" s="7">
+        <v>31814</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="7">
         <v>51</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>36638</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="7">
-        <v>46</v>
-      </c>
-      <c r="I9" s="7">
-        <v>31814</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>57</v>
@@ -5125,34 +5134,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>106</v>
+      </c>
+      <c r="D10" s="7">
+        <v>72788</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="H10" s="7">
         <v>126</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>91889</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="H10" s="7">
-        <v>106</v>
-      </c>
-      <c r="I10" s="7">
-        <v>72788</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="M10" s="7">
         <v>232</v>
@@ -5161,13 +5170,13 @@
         <v>164677</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5176,34 +5185,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>105</v>
+      </c>
+      <c r="D11" s="7">
+        <v>73885</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="H11" s="7">
         <v>100</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>72860</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="H11" s="7">
-        <v>105</v>
-      </c>
-      <c r="I11" s="7">
-        <v>73885</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>398</v>
+        <v>363</v>
       </c>
       <c r="M11" s="7">
         <v>205</v>
@@ -5212,13 +5221,13 @@
         <v>146745</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5227,34 +5236,34 @@
         <v>29</v>
       </c>
       <c r="C12" s="7">
+        <v>108</v>
+      </c>
+      <c r="D12" s="7">
+        <v>74810</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="H12" s="7">
         <v>93</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>68504</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="H12" s="7">
-        <v>108</v>
-      </c>
-      <c r="I12" s="7">
-        <v>74810</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="M12" s="7">
         <v>201</v>
@@ -5263,13 +5272,13 @@
         <v>143314</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>409</v>
+        <v>356</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5278,34 +5287,34 @@
         <v>39</v>
       </c>
       <c r="C13" s="7">
+        <v>27</v>
+      </c>
+      <c r="D13" s="7">
+        <v>19266</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="H13" s="7">
         <v>13</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>10008</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="H13" s="7">
-        <v>27</v>
-      </c>
-      <c r="I13" s="7">
-        <v>19266</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>414</v>
+        <v>172</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -5314,13 +5323,13 @@
         <v>29275</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5329,34 +5338,34 @@
         <v>49</v>
       </c>
       <c r="C14" s="7">
+        <v>13</v>
+      </c>
+      <c r="D14" s="7">
+        <v>9245</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="H14" s="7">
         <v>4</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>2813</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="H14" s="7">
-        <v>13</v>
-      </c>
-      <c r="I14" s="7">
-        <v>9245</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -5365,13 +5374,13 @@
         <v>12058</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>213</v>
+        <v>429</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5380,25 +5389,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>359</v>
+      </c>
+      <c r="D15" s="7">
+        <v>249995</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="7">
         <v>336</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>246074</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="7">
-        <v>359</v>
-      </c>
-      <c r="I15" s="7">
-        <v>249995</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>57</v>
@@ -5427,40 +5436,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>36</v>
+      </c>
+      <c r="D16" s="7">
+        <v>26005</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="H16" s="7">
         <v>45</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>31892</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="H16" s="7">
-        <v>36</v>
-      </c>
-      <c r="I16" s="7">
-        <v>26005</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="M16" s="7">
         <v>81</v>
@@ -5469,13 +5478,13 @@
         <v>57897</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>227</v>
+        <v>439</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,34 +5493,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>44</v>
+      </c>
+      <c r="D17" s="7">
+        <v>31601</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H17" s="7">
         <v>35</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>24543</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="H17" s="7">
-        <v>44</v>
-      </c>
-      <c r="I17" s="7">
-        <v>31601</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>439</v>
+        <v>238</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
@@ -5520,13 +5529,13 @@
         <v>56144</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,34 +5544,34 @@
         <v>29</v>
       </c>
       <c r="C18" s="7">
+        <v>13</v>
+      </c>
+      <c r="D18" s="7">
+        <v>9299</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H18" s="7">
         <v>22</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>17345</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="H18" s="7">
-        <v>13</v>
-      </c>
-      <c r="I18" s="7">
-        <v>9299</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="M18" s="7">
         <v>35</v>
@@ -5571,13 +5580,13 @@
         <v>26644</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5586,34 +5595,34 @@
         <v>39</v>
       </c>
       <c r="C19" s="7">
+        <v>6</v>
+      </c>
+      <c r="D19" s="7">
+        <v>4805</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="H19" s="7">
         <v>4</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>3063</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="H19" s="7">
-        <v>6</v>
-      </c>
-      <c r="I19" s="7">
-        <v>4805</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -5622,13 +5631,13 @@
         <v>7867</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5637,34 +5646,34 @@
         <v>49</v>
       </c>
       <c r="C20" s="7">
+        <v>4</v>
+      </c>
+      <c r="D20" s="7">
+        <v>2164</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="H20" s="7">
         <v>2</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>1219</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2164</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>464</v>
+        <v>43</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>465</v>
+        <v>253</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -5673,13 +5682,13 @@
         <v>3383</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>301</v>
+        <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5688,25 +5697,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>103</v>
+      </c>
+      <c r="D21" s="7">
+        <v>73874</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="7">
         <v>108</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>78061</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="7">
-        <v>103</v>
-      </c>
-      <c r="I21" s="7">
-        <v>73874</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>57</v>
@@ -5741,34 +5750,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>152</v>
+      </c>
+      <c r="D22" s="7">
+        <v>105489</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="H22" s="7">
         <v>178</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>128684</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="H22" s="7">
-        <v>152</v>
-      </c>
-      <c r="I22" s="7">
-        <v>105489</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="M22" s="7">
         <v>330</v>
@@ -5777,13 +5786,13 @@
         <v>234173</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>475</v>
+        <v>79</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5792,34 +5801,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>161</v>
+      </c>
+      <c r="D23" s="7">
+        <v>113041</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="H23" s="7">
         <v>153</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>110235</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="H23" s="7">
-        <v>161</v>
-      </c>
-      <c r="I23" s="7">
-        <v>113041</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="M23" s="7">
         <v>314</v>
@@ -5828,13 +5837,13 @@
         <v>223277</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>377</v>
+        <v>486</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,34 +5852,34 @@
         <v>29</v>
       </c>
       <c r="C24" s="7">
+        <v>135</v>
+      </c>
+      <c r="D24" s="7">
+        <v>94031</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="H24" s="7">
         <v>129</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>95639</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="H24" s="7">
-        <v>135</v>
-      </c>
-      <c r="I24" s="7">
-        <v>94031</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="M24" s="7">
         <v>264</v>
@@ -5879,13 +5888,13 @@
         <v>189670</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,34 +5903,34 @@
         <v>39</v>
       </c>
       <c r="C25" s="7">
+        <v>40</v>
+      </c>
+      <c r="D25" s="7">
+        <v>29440</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="H25" s="7">
         <v>29</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>22182</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="H25" s="7">
-        <v>40</v>
-      </c>
-      <c r="I25" s="7">
-        <v>29440</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="M25" s="7">
         <v>69</v>
@@ -5930,13 +5939,13 @@
         <v>51621</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>250</v>
+        <v>503</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5945,34 +5954,34 @@
         <v>49</v>
       </c>
       <c r="C26" s="7">
+        <v>20</v>
+      </c>
+      <c r="D26" s="7">
+        <v>13683</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H26" s="7">
         <v>6</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>4032</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="H26" s="7">
-        <v>20</v>
-      </c>
-      <c r="I26" s="7">
-        <v>13683</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>503</v>
+        <v>343</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="M26" s="7">
         <v>26</v>
@@ -5981,13 +5990,13 @@
         <v>17715</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>176</v>
+        <v>510</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>507</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5996,25 +6005,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>508</v>
+      </c>
+      <c r="D27" s="7">
+        <v>355684</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7">
         <v>495</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>360773</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7">
-        <v>508</v>
-      </c>
-      <c r="I27" s="7">
-        <v>355684</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>57</v>
